--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DCCE9B0-D4ED-4307-B9D6-7A67CD4E334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4869FB69-CD81-4D57-9BF5-66A9B8ADB969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="108" yWindow="1092" windowWidth="21600" windowHeight="11292" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>attribute1</t>
   </si>
@@ -170,13 +170,88 @@
   </si>
   <si>
     <t>Boy</t>
+  </si>
+  <si>
+    <t>vocuher1</t>
+  </si>
+  <si>
+    <t>vocuher2</t>
+  </si>
+  <si>
+    <t>vocuher3</t>
+  </si>
+  <si>
+    <t>vocuher4</t>
+  </si>
+  <si>
+    <t>vocuher5</t>
+  </si>
+  <si>
+    <t>vocuher6</t>
+  </si>
+  <si>
+    <t>1233456</t>
+  </si>
+  <si>
+    <t>1233457</t>
+  </si>
+  <si>
+    <t>1233458</t>
+  </si>
+  <si>
+    <t>1233459</t>
+  </si>
+  <si>
+    <t>1233460</t>
+  </si>
+  <si>
+    <t>1233461</t>
+  </si>
+  <si>
+    <t>vocuher7</t>
+  </si>
+  <si>
+    <t>vocuher8</t>
+  </si>
+  <si>
+    <t>vocuher9</t>
+  </si>
+  <si>
+    <t>vocuher10</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>1235</t>
+  </si>
+  <si>
+    <t>1236</t>
+  </si>
+  <si>
+    <t>1237</t>
+  </si>
+  <si>
+    <t>1238</t>
+  </si>
+  <si>
+    <t>1239</t>
+  </si>
+  <si>
+    <t>TestCasesID5</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +261,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,12 +327,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,227 +619,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L7" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>36</v>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -759,23 +885,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1400DB0E-8CEB-4275-AC6C-3249D17342F6}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -801,7 +927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -822,7 +948,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -842,7 +968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -857,7 +983,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -883,7 +1009,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -904,7 +1030,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -942,7 +1068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>

--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4869FB69-CD81-4D57-9BF5-66A9B8ADB969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F48F3-1291-439A-9F74-04488C8525AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
     <sheet name="betaSheet" sheetId="2" r:id="rId2"/>
+    <sheet name="realTime" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
   <si>
     <t>attribute1</t>
   </si>
@@ -229,9 +230,6 @@
     <t>1235</t>
   </si>
   <si>
-    <t>1236</t>
-  </si>
-  <si>
     <t>1237</t>
   </si>
   <si>
@@ -245,6 +243,27 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>HighLightElement</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>passWord</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t>admin123</t>
+  </si>
+  <si>
+    <t>12456</t>
+  </si>
+  <si>
+    <t>786</t>
   </si>
 </sst>
 </file>
@@ -621,25 +640,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="8"/>
+    <col min="10" max="10" width="9.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -665,7 +684,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -686,7 +705,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -706,7 +725,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -721,7 +740,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -747,7 +766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -756,19 +775,19 @@
         <v>66</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -806,7 +825,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>64</v>
@@ -839,9 +858,9 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>48</v>
@@ -856,22 +875,22 @@
         <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -886,22 +905,22 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -927,7 +946,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -948,7 +967,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -968,7 +987,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -983,7 +1002,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1009,7 +1028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1030,7 +1049,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1068,7 +1087,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1104,4 +1123,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377F48F3-1291-439A-9F74-04488C8525AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371100F-127F-4B22-A474-C0AFBBAE22C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
   <si>
     <t>attribute1</t>
   </si>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>786</t>
+  </si>
+  <si>
+    <t>45342543</t>
+  </si>
+  <si>
+    <t>3425</t>
+  </si>
+  <si>
+    <t>5342543</t>
+  </si>
+  <si>
+    <t>543543</t>
   </si>
 </sst>
 </file>
@@ -640,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -828,25 +840,25 @@
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>64</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>64</v>
@@ -1129,13 +1141,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>

--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5371100F-127F-4B22-A474-C0AFBBAE22C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD02B07-55E6-4295-9044-03BE19E0A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -652,8 +652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1141,8 +1141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Resources/TestData.xlsx
+++ b/Resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD02B07-55E6-4295-9044-03BE19E0A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5233122-3EC8-4ED2-8684-51C2A04FD013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -652,25 +652,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="8"/>
-    <col min="10" max="10" width="9.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -696,7 +696,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -717,7 +717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -737,7 +737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -752,7 +752,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -778,7 +778,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -799,7 +799,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -837,7 +837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -870,7 +870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -890,7 +890,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -920,19 +920,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -958,7 +958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -979,7 +979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -999,7 +999,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1014,7 +1014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1061,7 +1061,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1141,19 +1141,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
